--- a/output/design_bucatarie_george_output/Comanda_PAL_Alb W962ST2_George Mihes.xlsx
+++ b/output/design_bucatarie_george_output/Comanda_PAL_Alb W962ST2_George Mihes.xlsx
@@ -1696,14 +1696,14 @@
         <v>600</v>
       </c>
       <c r="C10" s="105" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="D10" s="105" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="105" t="inlineStr">
         <is>
-          <t>T1.jos</t>
+          <t>C1.jos</t>
         </is>
       </c>
       <c r="F10" s="105" t="n">
@@ -1794,17 +1794,17 @@
         </is>
       </c>
       <c r="B11" s="108" t="n">
-        <v>1982</v>
+        <v>724</v>
       </c>
       <c r="C11" s="108" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="D11" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="108" t="inlineStr">
         <is>
-          <t>T1.lat</t>
+          <t>C1.lat</t>
         </is>
       </c>
       <c r="F11" s="108" t="n">
@@ -1892,17 +1892,17 @@
         </is>
       </c>
       <c r="B12" s="108" t="n">
-        <v>1982</v>
+        <v>724</v>
       </c>
       <c r="C12" s="108" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="D12" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="108" t="inlineStr">
         <is>
-          <t>T1.lat</t>
+          <t>C1.lat</t>
         </is>
       </c>
       <c r="F12" s="108" t="n">
@@ -1992,20 +1992,22 @@
         <v>564</v>
       </c>
       <c r="C13" s="108" t="n">
-        <v>599</v>
+        <v>100</v>
       </c>
       <c r="D13" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E13" s="108" t="inlineStr">
         <is>
-          <t>T1.sus</t>
+          <t>C1.leg1</t>
         </is>
       </c>
       <c r="F13" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="G13" s="108" t="inlineStr"/>
+      <c r="G13" s="108" t="n">
+        <v>1</v>
+      </c>
       <c r="H13" s="108" t="inlineStr"/>
       <c r="I13" s="109" t="inlineStr"/>
       <c r="J13" s="106" t="n"/>
@@ -2087,29 +2089,27 @@
         </is>
       </c>
       <c r="B14" s="108" t="n">
-        <v>600</v>
+        <v>564</v>
       </c>
       <c r="C14" s="108" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D14" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="108" t="inlineStr">
         <is>
-          <t>C1.jos</t>
+          <t>C1.leg2</t>
         </is>
       </c>
       <c r="F14" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="G14" s="108" t="inlineStr"/>
-      <c r="H14" s="108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="109" t="n">
-        <v>1</v>
-      </c>
+      <c r="G14" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="108" t="inlineStr"/>
+      <c r="I14" s="109" t="inlineStr"/>
       <c r="J14" s="106" t="n"/>
       <c r="K14" s="110" t="inlineStr"/>
       <c r="M14" s="66" t="n"/>
@@ -2189,25 +2189,29 @@
         </is>
       </c>
       <c r="B15" s="108" t="n">
-        <v>724</v>
+        <v>487</v>
       </c>
       <c r="C15" s="108" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D15" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E15" s="108" t="inlineStr">
         <is>
-          <t>C1.lat</t>
+          <t>C1.ser.left</t>
         </is>
       </c>
       <c r="F15" s="108" t="n">
         <v>1</v>
       </c>
       <c r="G15" s="108" t="inlineStr"/>
-      <c r="H15" s="108" t="inlineStr"/>
-      <c r="I15" s="109" t="inlineStr"/>
+      <c r="H15" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="109" t="n">
+        <v>1</v>
+      </c>
       <c r="J15" s="106" t="n"/>
       <c r="K15" s="110" t="inlineStr"/>
       <c r="M15" s="66" t="n"/>
@@ -2287,17 +2291,17 @@
         </is>
       </c>
       <c r="B16" s="108" t="n">
-        <v>724</v>
+        <v>502</v>
       </c>
       <c r="C16" s="108" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D16" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E16" s="108" t="inlineStr">
         <is>
-          <t>C1.lat</t>
+          <t>C1.ser.front</t>
         </is>
       </c>
       <c r="F16" s="108" t="n">
@@ -2385,7 +2389,7 @@
         </is>
       </c>
       <c r="B17" s="108" t="n">
-        <v>564</v>
+        <v>502</v>
       </c>
       <c r="C17" s="108" t="n">
         <v>100</v>
@@ -2395,15 +2399,13 @@
       </c>
       <c r="E17" s="108" t="inlineStr">
         <is>
-          <t>C1.leg1</t>
+          <t>C1.ser.back</t>
         </is>
       </c>
       <c r="F17" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="G17" s="108" t="n">
-        <v>1</v>
-      </c>
+      <c r="G17" s="108" t="inlineStr"/>
       <c r="H17" s="108" t="inlineStr"/>
       <c r="I17" s="109" t="inlineStr"/>
       <c r="J17" s="106" t="n"/>
@@ -2485,7 +2487,7 @@
         </is>
       </c>
       <c r="B18" s="108" t="n">
-        <v>564</v>
+        <v>487</v>
       </c>
       <c r="C18" s="108" t="n">
         <v>100</v>
@@ -2495,17 +2497,19 @@
       </c>
       <c r="E18" s="108" t="inlineStr">
         <is>
-          <t>C1.leg2</t>
+          <t>C1.ser.right</t>
         </is>
       </c>
       <c r="F18" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="G18" s="108" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="108" t="inlineStr"/>
-      <c r="I18" s="109" t="inlineStr"/>
+      <c r="G18" s="108" t="inlineStr"/>
+      <c r="H18" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="109" t="n">
+        <v>1</v>
+      </c>
       <c r="J18" s="106" t="n"/>
       <c r="K18" s="110" t="inlineStr"/>
       <c r="M18" s="66" t="n"/>
@@ -2585,17 +2589,17 @@
         </is>
       </c>
       <c r="B19" s="108" t="n">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="C19" s="108" t="n">
-        <v>480</v>
+        <v>451</v>
       </c>
       <c r="D19" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E19" s="108" t="inlineStr">
         <is>
-          <t>C1.ser.jos</t>
+          <t>C1.ser.f</t>
         </is>
       </c>
       <c r="F19" s="108" t="inlineStr"/>
@@ -2603,11 +2607,7 @@
       <c r="H19" s="108" t="inlineStr"/>
       <c r="I19" s="109" t="inlineStr"/>
       <c r="J19" s="106" t="n"/>
-      <c r="K19" s="110" t="inlineStr">
-        <is>
-          <t>PAL 16</t>
-        </is>
-      </c>
+      <c r="K19" s="110" t="inlineStr"/>
       <c r="M19" s="66" t="n"/>
       <c r="W19" s="49">
         <f>A19*B19*C19/1000000</f>
@@ -2685,31 +2685,31 @@
         </is>
       </c>
       <c r="B20" s="108" t="n">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="C20" s="108" t="n">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="D20" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="108" t="inlineStr">
         <is>
-          <t>C1.ser.sp</t>
+          <t>C1.ser.left</t>
         </is>
       </c>
       <c r="F20" s="108" t="n">
         <v>1</v>
       </c>
       <c r="G20" s="108" t="inlineStr"/>
-      <c r="H20" s="108" t="inlineStr"/>
-      <c r="I20" s="109" t="inlineStr"/>
+      <c r="H20" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="109" t="n">
+        <v>1</v>
+      </c>
       <c r="J20" s="106" t="n"/>
-      <c r="K20" s="110" t="inlineStr">
-        <is>
-          <t>PAL 16</t>
-        </is>
-      </c>
+      <c r="K20" s="110" t="inlineStr"/>
       <c r="M20" s="48" t="n"/>
       <c r="W20" s="49">
         <f>A20*B20*C20/1000000</f>
@@ -2787,29 +2787,27 @@
         </is>
       </c>
       <c r="B21" s="108" t="n">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="C21" s="108" t="n">
-        <v>480</v>
+        <v>100</v>
       </c>
       <c r="D21" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E21" s="108" t="inlineStr">
         <is>
-          <t>C1.ser.jos</t>
-        </is>
-      </c>
-      <c r="F21" s="108" t="inlineStr"/>
+          <t>C1.ser.front</t>
+        </is>
+      </c>
+      <c r="F21" s="108" t="n">
+        <v>1</v>
+      </c>
       <c r="G21" s="108" t="inlineStr"/>
       <c r="H21" s="108" t="inlineStr"/>
       <c r="I21" s="109" t="inlineStr"/>
       <c r="J21" s="109" t="n"/>
-      <c r="K21" s="110" t="inlineStr">
-        <is>
-          <t>PAL 16</t>
-        </is>
-      </c>
+      <c r="K21" s="110" t="inlineStr"/>
       <c r="M21" s="48" t="n"/>
       <c r="W21" s="49">
         <f>A21*B21*C21/1000000</f>
@@ -2887,17 +2885,17 @@
         </is>
       </c>
       <c r="B22" s="108" t="n">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="C22" s="108" t="n">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="D22" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="108" t="inlineStr">
         <is>
-          <t>C1.ser.sp</t>
+          <t>C1.ser.back</t>
         </is>
       </c>
       <c r="F22" s="108" t="n">
@@ -2907,11 +2905,7 @@
       <c r="H22" s="108" t="inlineStr"/>
       <c r="I22" s="109" t="inlineStr"/>
       <c r="J22" s="109" t="n"/>
-      <c r="K22" s="110" t="inlineStr">
-        <is>
-          <t>PAL 16</t>
-        </is>
-      </c>
+      <c r="K22" s="110" t="inlineStr"/>
       <c r="M22" s="48" t="n"/>
       <c r="W22" s="49">
         <f>A22*B22*C22/1000000</f>
@@ -2989,29 +2983,31 @@
         </is>
       </c>
       <c r="B23" s="108" t="n">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C23" s="108" t="n">
-        <v>480</v>
+        <v>100</v>
       </c>
       <c r="D23" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="108" t="inlineStr">
         <is>
-          <t>C1.ser.jos</t>
-        </is>
-      </c>
-      <c r="F23" s="108" t="inlineStr"/>
+          <t>C1.ser.right</t>
+        </is>
+      </c>
+      <c r="F23" s="108" t="n">
+        <v>1</v>
+      </c>
       <c r="G23" s="108" t="inlineStr"/>
-      <c r="H23" s="108" t="inlineStr"/>
-      <c r="I23" s="109" t="inlineStr"/>
+      <c r="H23" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="109" t="n">
+        <v>1</v>
+      </c>
       <c r="J23" s="109" t="n"/>
-      <c r="K23" s="110" t="inlineStr">
-        <is>
-          <t>PAL 16</t>
-        </is>
-      </c>
+      <c r="K23" s="110" t="inlineStr"/>
       <c r="M23" s="66" t="n"/>
       <c r="W23" s="49">
         <f>A23*B23*C23/1000000</f>
@@ -3089,31 +3085,25 @@
         </is>
       </c>
       <c r="B24" s="108" t="n">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="C24" s="108" t="n">
-        <v>183</v>
+        <v>451</v>
       </c>
       <c r="D24" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E24" s="108" t="inlineStr">
         <is>
-          <t>C1.ser.sp</t>
-        </is>
-      </c>
-      <c r="F24" s="108" t="n">
-        <v>1</v>
-      </c>
+          <t>C1.ser.f</t>
+        </is>
+      </c>
+      <c r="F24" s="108" t="inlineStr"/>
       <c r="G24" s="108" t="inlineStr"/>
       <c r="H24" s="108" t="inlineStr"/>
       <c r="I24" s="109" t="inlineStr"/>
       <c r="J24" s="109" t="n"/>
-      <c r="K24" s="110" t="inlineStr">
-        <is>
-          <t>PAL 16</t>
-        </is>
-      </c>
+      <c r="K24" s="110" t="inlineStr"/>
       <c r="W24" s="49">
         <f>A24*B24*C24/1000000</f>
         <v/>
@@ -3190,29 +3180,31 @@
         </is>
       </c>
       <c r="B25" s="108" t="n">
-        <v>900</v>
+        <v>487</v>
       </c>
       <c r="C25" s="108" t="n">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="D25" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E25" s="108" t="inlineStr">
         <is>
-          <t>C2.jos</t>
-        </is>
-      </c>
-      <c r="F25" s="108" t="inlineStr"/>
+          <t>C1.ser.left</t>
+        </is>
+      </c>
+      <c r="F25" s="108" t="n">
+        <v>1</v>
+      </c>
       <c r="G25" s="108" t="inlineStr"/>
-      <c r="H25" s="108" t="inlineStr"/>
-      <c r="I25" s="109" t="inlineStr"/>
+      <c r="H25" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="109" t="n">
+        <v>1</v>
+      </c>
       <c r="J25" s="109" t="n"/>
-      <c r="K25" s="110" t="inlineStr">
-        <is>
-          <t>decupaj colt dreapta. Cote in sensul acelor de ceasornic, de la coltul din stanga spate: 900:900:600:300(cant 1):300(cant 1):600</t>
-        </is>
-      </c>
+      <c r="K25" s="110" t="inlineStr"/>
       <c r="W25" s="49">
         <f>A25*B25*C25/1000000</f>
         <v/>
@@ -3289,17 +3281,17 @@
         </is>
       </c>
       <c r="B26" s="108" t="n">
-        <v>724</v>
+        <v>502</v>
       </c>
       <c r="C26" s="108" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="D26" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="108" t="inlineStr">
         <is>
-          <t>C2.lat1</t>
+          <t>C1.ser.front</t>
         </is>
       </c>
       <c r="F26" s="108" t="n">
@@ -3386,17 +3378,17 @@
         </is>
       </c>
       <c r="B27" s="108" t="n">
-        <v>724</v>
+        <v>502</v>
       </c>
       <c r="C27" s="108" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="D27" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E27" s="108" t="inlineStr">
         <is>
-          <t>C2.lat2</t>
+          <t>C1.ser.back</t>
         </is>
       </c>
       <c r="F27" s="108" t="n">
@@ -3483,23 +3475,29 @@
         </is>
       </c>
       <c r="B28" s="108" t="n">
-        <v>882</v>
+        <v>487</v>
       </c>
       <c r="C28" s="108" t="n">
-        <v>724</v>
+        <v>100</v>
       </c>
       <c r="D28" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E28" s="108" t="inlineStr">
         <is>
-          <t>C2.spate</t>
-        </is>
-      </c>
-      <c r="F28" s="108" t="inlineStr"/>
+          <t>C1.ser.right</t>
+        </is>
+      </c>
+      <c r="F28" s="108" t="n">
+        <v>1</v>
+      </c>
       <c r="G28" s="108" t="inlineStr"/>
-      <c r="H28" s="108" t="inlineStr"/>
-      <c r="I28" s="109" t="inlineStr"/>
+      <c r="H28" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="109" t="n">
+        <v>1</v>
+      </c>
       <c r="J28" s="109" t="n"/>
       <c r="K28" s="110" t="inlineStr"/>
       <c r="W28" s="49">
@@ -3578,22 +3576,20 @@
         </is>
       </c>
       <c r="B29" s="108" t="n">
-        <v>864</v>
+        <v>502</v>
       </c>
       <c r="C29" s="108" t="n">
-        <v>100</v>
+        <v>451</v>
       </c>
       <c r="D29" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E29" s="108" t="inlineStr">
         <is>
-          <t>C2.leg</t>
-        </is>
-      </c>
-      <c r="F29" s="108" t="n">
-        <v>1</v>
-      </c>
+          <t>C1.ser.f</t>
+        </is>
+      </c>
+      <c r="F29" s="108" t="inlineStr"/>
       <c r="G29" s="108" t="inlineStr"/>
       <c r="H29" s="108" t="inlineStr"/>
       <c r="I29" s="109" t="inlineStr"/>
@@ -3675,7 +3671,7 @@
         </is>
       </c>
       <c r="B30" s="108" t="n">
-        <v>864</v>
+        <v>487</v>
       </c>
       <c r="C30" s="108" t="n">
         <v>100</v>
@@ -3685,15 +3681,19 @@
       </c>
       <c r="E30" s="108" t="inlineStr">
         <is>
-          <t>C2.leg</t>
+          <t>C1.ser.left</t>
         </is>
       </c>
       <c r="F30" s="108" t="n">
         <v>1</v>
       </c>
       <c r="G30" s="108" t="inlineStr"/>
-      <c r="H30" s="108" t="inlineStr"/>
-      <c r="I30" s="109" t="inlineStr"/>
+      <c r="H30" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="109" t="n">
+        <v>1</v>
+      </c>
       <c r="J30" s="109" t="n"/>
       <c r="K30" s="110" t="inlineStr"/>
       <c r="W30" s="49">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B31" s="108" t="n">
-        <v>282</v>
+        <v>502</v>
       </c>
       <c r="C31" s="108" t="n">
         <v>100</v>
@@ -3782,7 +3782,7 @@
       </c>
       <c r="E31" s="108" t="inlineStr">
         <is>
-          <t>C2.leg</t>
+          <t>C1.ser.front</t>
         </is>
       </c>
       <c r="F31" s="108" t="n">
@@ -3869,29 +3869,25 @@
         </is>
       </c>
       <c r="B32" s="108" t="n">
-        <v>600</v>
+        <v>502</v>
       </c>
       <c r="C32" s="108" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D32" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E32" s="108" t="inlineStr">
         <is>
-          <t>C3.jos</t>
+          <t>C1.ser.back</t>
         </is>
       </c>
       <c r="F32" s="108" t="n">
         <v>1</v>
       </c>
       <c r="G32" s="108" t="inlineStr"/>
-      <c r="H32" s="108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="109" t="n">
-        <v>1</v>
-      </c>
+      <c r="H32" s="108" t="inlineStr"/>
+      <c r="I32" s="109" t="inlineStr"/>
       <c r="J32" s="109" t="n"/>
       <c r="K32" s="110" t="inlineStr"/>
       <c r="W32" s="49">
@@ -3970,25 +3966,29 @@
         </is>
       </c>
       <c r="B33" s="108" t="n">
-        <v>724</v>
+        <v>487</v>
       </c>
       <c r="C33" s="108" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D33" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E33" s="108" t="inlineStr">
         <is>
-          <t>C3.lat</t>
+          <t>C1.ser.right</t>
         </is>
       </c>
       <c r="F33" s="108" t="n">
         <v>1</v>
       </c>
       <c r="G33" s="108" t="inlineStr"/>
-      <c r="H33" s="108" t="inlineStr"/>
-      <c r="I33" s="109" t="inlineStr"/>
+      <c r="H33" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="109" t="n">
+        <v>1</v>
+      </c>
       <c r="J33" s="109" t="n"/>
       <c r="K33" s="110" t="inlineStr"/>
       <c r="W33" s="49">
@@ -4067,22 +4067,20 @@
         </is>
       </c>
       <c r="B34" s="108" t="n">
-        <v>724</v>
+        <v>502</v>
       </c>
       <c r="C34" s="108" t="n">
-        <v>500</v>
+        <v>451</v>
       </c>
       <c r="D34" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E34" s="108" t="inlineStr">
         <is>
-          <t>C3.lat</t>
-        </is>
-      </c>
-      <c r="F34" s="108" t="n">
-        <v>1</v>
-      </c>
+          <t>C1.ser.f</t>
+        </is>
+      </c>
+      <c r="F34" s="108" t="inlineStr"/>
       <c r="G34" s="108" t="inlineStr"/>
       <c r="H34" s="108" t="inlineStr"/>
       <c r="I34" s="109" t="inlineStr"/>
@@ -4164,27 +4162,29 @@
         </is>
       </c>
       <c r="B35" s="108" t="n">
-        <v>564</v>
+        <v>780</v>
       </c>
       <c r="C35" s="108" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="D35" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E35" s="108" t="inlineStr">
         <is>
-          <t>C3.leg1</t>
+          <t>S1.lat1</t>
         </is>
       </c>
       <c r="F35" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="G35" s="108" t="n">
-        <v>1</v>
-      </c>
-      <c r="H35" s="108" t="inlineStr"/>
-      <c r="I35" s="109" t="inlineStr"/>
+      <c r="G35" s="108" t="inlineStr"/>
+      <c r="H35" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="109" t="n">
+        <v>1</v>
+      </c>
       <c r="J35" s="109" t="n"/>
       <c r="K35" s="110" t="inlineStr"/>
       <c r="W35" s="49">
@@ -4266,22 +4266,20 @@
         <v>564</v>
       </c>
       <c r="C36" s="108" t="n">
-        <v>100</v>
+        <v>399</v>
       </c>
       <c r="D36" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E36" s="108" t="inlineStr">
         <is>
-          <t>C3.leg2</t>
+          <t>S1.jos</t>
         </is>
       </c>
       <c r="F36" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="G36" s="108" t="n">
-        <v>1</v>
-      </c>
+      <c r="G36" s="108" t="inlineStr"/>
       <c r="H36" s="108" t="inlineStr"/>
       <c r="I36" s="109" t="inlineStr"/>
       <c r="J36" s="109" t="n"/>
@@ -4362,29 +4360,31 @@
         </is>
       </c>
       <c r="B37" s="108" t="n">
-        <v>489</v>
+        <v>780</v>
       </c>
       <c r="C37" s="108" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="D37" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E37" s="108" t="inlineStr">
         <is>
-          <t>C3.ser.jos</t>
-        </is>
-      </c>
-      <c r="F37" s="108" t="inlineStr"/>
+          <t>S1.lat2</t>
+        </is>
+      </c>
+      <c r="F37" s="108" t="n">
+        <v>1</v>
+      </c>
       <c r="G37" s="108" t="inlineStr"/>
-      <c r="H37" s="108" t="inlineStr"/>
-      <c r="I37" s="109" t="inlineStr"/>
+      <c r="H37" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="109" t="n">
+        <v>1</v>
+      </c>
       <c r="J37" s="109" t="n"/>
-      <c r="K37" s="110" t="inlineStr">
-        <is>
-          <t>PAL 16</t>
-        </is>
-      </c>
+      <c r="K37" s="110" t="inlineStr"/>
       <c r="W37" s="49">
         <f>A37*B37*C37/1000000</f>
         <v/>
@@ -4461,17 +4461,17 @@
         </is>
       </c>
       <c r="B38" s="108" t="n">
-        <v>477</v>
+        <v>564</v>
       </c>
       <c r="C38" s="108" t="n">
-        <v>68</v>
+        <v>399</v>
       </c>
       <c r="D38" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E38" s="108" t="inlineStr">
         <is>
-          <t>C3.ser.sp</t>
+          <t>S1.sus</t>
         </is>
       </c>
       <c r="F38" s="108" t="n">
@@ -4481,11 +4481,7 @@
       <c r="H38" s="108" t="inlineStr"/>
       <c r="I38" s="109" t="inlineStr"/>
       <c r="J38" s="109" t="n"/>
-      <c r="K38" s="110" t="inlineStr">
-        <is>
-          <t>PAL 16</t>
-        </is>
-      </c>
+      <c r="K38" s="110" t="inlineStr"/>
       <c r="W38" s="49">
         <f>A38*B38*C38/1000000</f>
         <v/>
@@ -4565,18 +4561,18 @@
         <v>564</v>
       </c>
       <c r="C39" s="108" t="n">
-        <v>480</v>
+        <v>380</v>
       </c>
       <c r="D39" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E39" s="108" t="inlineStr">
         <is>
-          <t>C3.pol</t>
+          <t>S1.pol</t>
         </is>
       </c>
       <c r="F39" s="108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" s="108" t="inlineStr"/>
       <c r="H39" s="108" t="inlineStr"/>
@@ -4662,18 +4658,18 @@
         <v>564</v>
       </c>
       <c r="C40" s="108" t="n">
-        <v>480</v>
+        <v>380</v>
       </c>
       <c r="D40" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E40" s="108" t="inlineStr">
         <is>
-          <t>C3.pol</t>
+          <t>S1.pol</t>
         </is>
       </c>
       <c r="F40" s="108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" s="108" t="inlineStr"/>
       <c r="H40" s="108" t="inlineStr"/>
@@ -4756,31 +4752,29 @@
         </is>
       </c>
       <c r="B41" s="108" t="n">
-        <v>1100</v>
+        <v>850</v>
       </c>
       <c r="C41" s="108" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="D41" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E41" s="108" t="inlineStr">
         <is>
-          <t>C5.jos</t>
-        </is>
-      </c>
-      <c r="F41" s="108" t="n">
-        <v>1</v>
-      </c>
+          <t>C2.jos</t>
+        </is>
+      </c>
+      <c r="F41" s="108" t="inlineStr"/>
       <c r="G41" s="108" t="inlineStr"/>
-      <c r="H41" s="108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" s="109" t="n">
-        <v>1</v>
-      </c>
+      <c r="H41" s="108" t="inlineStr"/>
+      <c r="I41" s="109" t="inlineStr"/>
       <c r="J41" s="109" t="n"/>
-      <c r="K41" s="110" t="inlineStr"/>
+      <c r="K41" s="110" t="inlineStr">
+        <is>
+          <t>decupaj colt dreapta. Cote in sensul acelor de ceasornic, de la coltul din stanga spate: 850:850:500:350(cant 1):350(cant 1):500</t>
+        </is>
+      </c>
       <c r="W41" s="49">
         <f>A41*B41*C41/1000000</f>
         <v/>
@@ -4867,7 +4861,7 @@
       </c>
       <c r="E42" s="108" t="inlineStr">
         <is>
-          <t>C5.lat</t>
+          <t>C2.lat1</t>
         </is>
       </c>
       <c r="F42" s="108" t="n">
@@ -4964,7 +4958,7 @@
       </c>
       <c r="E43" s="108" t="inlineStr">
         <is>
-          <t>C5.lat</t>
+          <t>C2.lat2</t>
         </is>
       </c>
       <c r="F43" s="108" t="n">
@@ -5051,25 +5045,21 @@
         </is>
       </c>
       <c r="B44" s="108" t="n">
-        <v>1064</v>
+        <v>832</v>
       </c>
       <c r="C44" s="108" t="n">
-        <v>100</v>
+        <v>724</v>
       </c>
       <c r="D44" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E44" s="108" t="inlineStr">
         <is>
-          <t>C5.leg1</t>
-        </is>
-      </c>
-      <c r="F44" s="108" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="108" t="n">
-        <v>1</v>
-      </c>
+          <t>C2.spate</t>
+        </is>
+      </c>
+      <c r="F44" s="108" t="inlineStr"/>
+      <c r="G44" s="108" t="inlineStr"/>
       <c r="H44" s="108" t="inlineStr"/>
       <c r="I44" s="109" t="inlineStr"/>
       <c r="J44" s="109" t="n"/>
@@ -5150,7 +5140,7 @@
         </is>
       </c>
       <c r="B45" s="108" t="n">
-        <v>1064</v>
+        <v>814</v>
       </c>
       <c r="C45" s="108" t="n">
         <v>100</v>
@@ -5160,15 +5150,13 @@
       </c>
       <c r="E45" s="108" t="inlineStr">
         <is>
-          <t>C5.leg2</t>
+          <t>C2.leg</t>
         </is>
       </c>
       <c r="F45" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="G45" s="108" t="n">
-        <v>1</v>
-      </c>
+      <c r="G45" s="108" t="inlineStr"/>
       <c r="H45" s="108" t="inlineStr"/>
       <c r="I45" s="109" t="inlineStr"/>
       <c r="J45" s="109" t="n"/>
@@ -5249,7 +5237,7 @@
         </is>
       </c>
       <c r="B46" s="108" t="n">
-        <v>1064</v>
+        <v>814</v>
       </c>
       <c r="C46" s="108" t="n">
         <v>100</v>
@@ -5259,7 +5247,7 @@
       </c>
       <c r="E46" s="108" t="inlineStr">
         <is>
-          <t>C5.leg</t>
+          <t>C2.leg</t>
         </is>
       </c>
       <c r="F46" s="108" t="n">
@@ -5346,29 +5334,25 @@
         </is>
       </c>
       <c r="B47" s="108" t="n">
-        <v>150</v>
+        <v>332</v>
       </c>
       <c r="C47" s="108" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D47" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E47" s="108" t="inlineStr">
         <is>
-          <t>C6.jos</t>
+          <t>C2.leg</t>
         </is>
       </c>
       <c r="F47" s="108" t="n">
         <v>1</v>
       </c>
       <c r="G47" s="108" t="inlineStr"/>
-      <c r="H47" s="108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" s="109" t="n">
-        <v>1</v>
-      </c>
+      <c r="H47" s="108" t="inlineStr"/>
+      <c r="I47" s="109" t="inlineStr"/>
       <c r="J47" s="109" t="n"/>
       <c r="K47" s="110" t="inlineStr"/>
       <c r="W47" s="49">
@@ -5450,22 +5434,28 @@
         <v>724</v>
       </c>
       <c r="C48" s="108" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="D48" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E48" s="108" t="inlineStr">
         <is>
-          <t>C6.lat</t>
+          <t>C2.colt1</t>
         </is>
       </c>
       <c r="F48" s="108" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" s="108" t="inlineStr"/>
-      <c r="H48" s="108" t="inlineStr"/>
-      <c r="I48" s="109" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="G48" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="109" t="n">
+        <v>0</v>
+      </c>
       <c r="J48" s="109" t="n"/>
       <c r="K48" s="110" t="inlineStr"/>
       <c r="W48" s="49">
@@ -5547,22 +5537,28 @@
         <v>724</v>
       </c>
       <c r="C49" s="108" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="D49" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E49" s="108" t="inlineStr">
         <is>
-          <t>C6.lat</t>
+          <t>C2.colt2</t>
         </is>
       </c>
       <c r="F49" s="108" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" s="108" t="inlineStr"/>
-      <c r="H49" s="108" t="inlineStr"/>
-      <c r="I49" s="109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="109" t="n">
+        <v>0</v>
+      </c>
       <c r="J49" s="109" t="n"/>
       <c r="K49" s="110" t="inlineStr"/>
       <c r="W49" s="49">
@@ -5641,27 +5637,29 @@
         </is>
       </c>
       <c r="B50" s="108" t="n">
-        <v>114</v>
+        <v>780</v>
       </c>
       <c r="C50" s="108" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="D50" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E50" s="108" t="inlineStr">
         <is>
-          <t>C6.leg1</t>
+          <t>S2.lat1</t>
         </is>
       </c>
       <c r="F50" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="G50" s="108" t="n">
-        <v>1</v>
-      </c>
-      <c r="H50" s="108" t="inlineStr"/>
-      <c r="I50" s="109" t="inlineStr"/>
+      <c r="G50" s="108" t="inlineStr"/>
+      <c r="H50" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" s="109" t="n">
+        <v>1</v>
+      </c>
       <c r="J50" s="109" t="n"/>
       <c r="K50" s="110" t="inlineStr"/>
       <c r="W50" s="49">
@@ -5740,25 +5738,23 @@
         </is>
       </c>
       <c r="B51" s="108" t="n">
-        <v>114</v>
+        <v>264</v>
       </c>
       <c r="C51" s="108" t="n">
-        <v>100</v>
+        <v>399</v>
       </c>
       <c r="D51" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E51" s="108" t="inlineStr">
         <is>
-          <t>C6.leg2</t>
+          <t>S2.jos</t>
         </is>
       </c>
       <c r="F51" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="G51" s="108" t="n">
-        <v>1</v>
-      </c>
+      <c r="G51" s="108" t="inlineStr"/>
       <c r="H51" s="108" t="inlineStr"/>
       <c r="I51" s="109" t="inlineStr"/>
       <c r="J51" s="109" t="n"/>
@@ -5839,7 +5835,7 @@
         </is>
       </c>
       <c r="B52" s="108" t="n">
-        <v>500</v>
+        <v>780</v>
       </c>
       <c r="C52" s="108" t="n">
         <v>400</v>
@@ -5849,7 +5845,7 @@
       </c>
       <c r="E52" s="108" t="inlineStr">
         <is>
-          <t>S1.lat1</t>
+          <t>S2.lat2</t>
         </is>
       </c>
       <c r="F52" s="108" t="n">
@@ -5940,7 +5936,7 @@
         </is>
       </c>
       <c r="B53" s="108" t="n">
-        <v>564</v>
+        <v>264</v>
       </c>
       <c r="C53" s="108" t="n">
         <v>399</v>
@@ -5950,7 +5946,7 @@
       </c>
       <c r="E53" s="108" t="inlineStr">
         <is>
-          <t>S1.jos</t>
+          <t>S2.sus</t>
         </is>
       </c>
       <c r="F53" s="108" t="n">
@@ -6037,29 +6033,25 @@
         </is>
       </c>
       <c r="B54" s="108" t="n">
-        <v>500</v>
+        <v>264</v>
       </c>
       <c r="C54" s="108" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="D54" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E54" s="108" t="inlineStr">
         <is>
-          <t>S1.lat2</t>
+          <t>S2.pol</t>
         </is>
       </c>
       <c r="F54" s="108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" s="108" t="inlineStr"/>
-      <c r="H54" s="108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" s="109" t="n">
-        <v>1</v>
-      </c>
+      <c r="H54" s="108" t="inlineStr"/>
+      <c r="I54" s="109" t="inlineStr"/>
       <c r="J54" s="109" t="n"/>
       <c r="K54" s="110" t="inlineStr"/>
       <c r="W54" s="49">
@@ -6138,21 +6130,21 @@
         </is>
       </c>
       <c r="B55" s="108" t="n">
-        <v>564</v>
+        <v>264</v>
       </c>
       <c r="C55" s="108" t="n">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="D55" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E55" s="108" t="inlineStr">
         <is>
-          <t>S1.sus</t>
+          <t>S2.pol</t>
         </is>
       </c>
       <c r="F55" s="108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55" s="108" t="inlineStr"/>
       <c r="H55" s="108" t="inlineStr"/>
@@ -6238,24 +6230,26 @@
         <v>564</v>
       </c>
       <c r="C56" s="108" t="n">
-        <v>380</v>
+        <v>682</v>
       </c>
       <c r="D56" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E56" s="108" t="inlineStr">
         <is>
-          <t>S1.pol</t>
-        </is>
-      </c>
-      <c r="F56" s="108" t="n">
-        <v>2</v>
-      </c>
+          <t>S3.jos</t>
+        </is>
+      </c>
+      <c r="F56" s="108" t="inlineStr"/>
       <c r="G56" s="108" t="inlineStr"/>
       <c r="H56" s="108" t="inlineStr"/>
       <c r="I56" s="109" t="inlineStr"/>
       <c r="J56" s="109" t="n"/>
-      <c r="K56" s="110" t="inlineStr"/>
+      <c r="K56" s="110" t="inlineStr">
+        <is>
+          <t>decupaj colt dreapta. Cote in sensul acelor de ceasornic, de la coltul din stanga spate: 564:682:382:282(cant 1):182(cant 1):400:</t>
+        </is>
+      </c>
       <c r="W56" s="49">
         <f>A56*B56*C56/1000000</f>
         <v/>
@@ -6332,31 +6326,29 @@
         </is>
       </c>
       <c r="B57" s="108" t="n">
-        <v>500</v>
+        <v>564</v>
       </c>
       <c r="C57" s="108" t="n">
-        <v>400</v>
+        <v>682</v>
       </c>
       <c r="D57" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E57" s="108" t="inlineStr">
         <is>
-          <t>S2.lat1</t>
-        </is>
-      </c>
-      <c r="F57" s="108" t="n">
-        <v>1</v>
-      </c>
+          <t>S3.sus</t>
+        </is>
+      </c>
+      <c r="F57" s="108" t="inlineStr"/>
       <c r="G57" s="108" t="inlineStr"/>
-      <c r="H57" s="108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" s="109" t="n">
-        <v>1</v>
-      </c>
+      <c r="H57" s="108" t="inlineStr"/>
+      <c r="I57" s="109" t="inlineStr"/>
       <c r="J57" s="109" t="n"/>
-      <c r="K57" s="110" t="inlineStr"/>
+      <c r="K57" s="110" t="inlineStr">
+        <is>
+          <t>decupaj colt dreapta. Cote in sensul acelor de ceasornic, de la coltul din stanga spate: 564:682:382:282(cant 1):182(cant 1):400:</t>
+        </is>
+      </c>
       <c r="W57" s="49">
         <f>A57*B57*C57/1000000</f>
         <v/>
@@ -6433,27 +6425,29 @@
         </is>
       </c>
       <c r="B58" s="108" t="n">
-        <v>264</v>
+        <v>564</v>
       </c>
       <c r="C58" s="108" t="n">
-        <v>399</v>
+        <v>682</v>
       </c>
       <c r="D58" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E58" s="108" t="inlineStr">
         <is>
-          <t>S2.jos</t>
-        </is>
-      </c>
-      <c r="F58" s="108" t="n">
-        <v>1</v>
-      </c>
+          <t>S3.pol</t>
+        </is>
+      </c>
+      <c r="F58" s="108" t="inlineStr"/>
       <c r="G58" s="108" t="inlineStr"/>
       <c r="H58" s="108" t="inlineStr"/>
       <c r="I58" s="109" t="inlineStr"/>
       <c r="J58" s="109" t="n"/>
-      <c r="K58" s="110" t="inlineStr"/>
+      <c r="K58" s="110" t="inlineStr">
+        <is>
+          <t>decupaj colt dreapta. Cote in sensul acelor de ceasornic, de la coltul din stanga spate: 564:682:362:302(cant 1):202(cant 1):380:</t>
+        </is>
+      </c>
       <c r="W58" s="49">
         <f>A58*B58*C58/1000000</f>
         <v/>
@@ -6530,31 +6524,29 @@
         </is>
       </c>
       <c r="B59" s="108" t="n">
-        <v>500</v>
+        <v>564</v>
       </c>
       <c r="C59" s="108" t="n">
-        <v>400</v>
+        <v>682</v>
       </c>
       <c r="D59" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E59" s="108" t="inlineStr">
         <is>
-          <t>S2.lat2</t>
-        </is>
-      </c>
-      <c r="F59" s="108" t="n">
-        <v>1</v>
-      </c>
+          <t>S3.pol</t>
+        </is>
+      </c>
+      <c r="F59" s="108" t="inlineStr"/>
       <c r="G59" s="108" t="inlineStr"/>
-      <c r="H59" s="108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" s="109" t="n">
-        <v>1</v>
-      </c>
+      <c r="H59" s="108" t="inlineStr"/>
+      <c r="I59" s="109" t="inlineStr"/>
       <c r="J59" s="109" t="n"/>
-      <c r="K59" s="110" t="inlineStr"/>
+      <c r="K59" s="110" t="inlineStr">
+        <is>
+          <t>decupaj colt dreapta. Cote in sensul acelor de ceasornic, de la coltul din stanga spate: 564:682:362:302(cant 1):202(cant 1):380:</t>
+        </is>
+      </c>
       <c r="W59" s="49">
         <f>A59*B59*C59/1000000</f>
         <v/>
@@ -6631,22 +6623,20 @@
         </is>
       </c>
       <c r="B60" s="108" t="n">
-        <v>264</v>
+        <v>780</v>
       </c>
       <c r="C60" s="108" t="n">
-        <v>399</v>
+        <v>682</v>
       </c>
       <c r="D60" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E60" s="108" t="inlineStr">
         <is>
-          <t>S2.sus</t>
-        </is>
-      </c>
-      <c r="F60" s="108" t="n">
-        <v>1</v>
-      </c>
+          <t>S3.spate</t>
+        </is>
+      </c>
+      <c r="F60" s="108" t="inlineStr"/>
       <c r="G60" s="108" t="inlineStr"/>
       <c r="H60" s="108" t="inlineStr"/>
       <c r="I60" s="109" t="inlineStr"/>
@@ -6728,25 +6718,29 @@
         </is>
       </c>
       <c r="B61" s="108" t="n">
-        <v>264</v>
+        <v>780</v>
       </c>
       <c r="C61" s="108" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="D61" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E61" s="108" t="inlineStr">
         <is>
-          <t>S2.pol</t>
+          <t>S3.lat1</t>
         </is>
       </c>
       <c r="F61" s="108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G61" s="108" t="inlineStr"/>
-      <c r="H61" s="108" t="inlineStr"/>
-      <c r="I61" s="109" t="inlineStr"/>
+      <c r="H61" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" s="109" t="n">
+        <v>1</v>
+      </c>
       <c r="J61" s="109" t="n"/>
       <c r="K61" s="110" t="inlineStr"/>
       <c r="W61" s="49">
@@ -6825,29 +6819,31 @@
         </is>
       </c>
       <c r="B62" s="108" t="n">
-        <v>564</v>
+        <v>780</v>
       </c>
       <c r="C62" s="108" t="n">
-        <v>682</v>
+        <v>400</v>
       </c>
       <c r="D62" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E62" s="108" t="inlineStr">
         <is>
-          <t>S3.jos</t>
-        </is>
-      </c>
-      <c r="F62" s="108" t="inlineStr"/>
+          <t>S3.lat2</t>
+        </is>
+      </c>
+      <c r="F62" s="108" t="n">
+        <v>1</v>
+      </c>
       <c r="G62" s="108" t="inlineStr"/>
-      <c r="H62" s="108" t="inlineStr"/>
-      <c r="I62" s="109" t="inlineStr"/>
+      <c r="H62" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" s="109" t="n">
+        <v>1</v>
+      </c>
       <c r="J62" s="109" t="n"/>
-      <c r="K62" s="110" t="inlineStr">
-        <is>
-          <t>decupaj colt dreapta. Cote in sensul acelor de ceasornic, de la coltul din stanga spate: 564:682:382:282(cant 1):182(cant 1):400:</t>
-        </is>
-      </c>
+      <c r="K62" s="110" t="inlineStr"/>
       <c r="W62" s="49">
         <f>A62*B62*C62/1000000</f>
         <v/>
@@ -6924,29 +6920,33 @@
         </is>
       </c>
       <c r="B63" s="108" t="n">
-        <v>564</v>
+        <v>744</v>
       </c>
       <c r="C63" s="108" t="n">
-        <v>682</v>
+        <v>250</v>
       </c>
       <c r="D63" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E63" s="108" t="inlineStr">
         <is>
-          <t>S3.sus</t>
-        </is>
-      </c>
-      <c r="F63" s="108" t="inlineStr"/>
-      <c r="G63" s="108" t="inlineStr"/>
-      <c r="H63" s="108" t="inlineStr"/>
-      <c r="I63" s="109" t="inlineStr"/>
+          <t>S3.colt1</t>
+        </is>
+      </c>
+      <c r="F63" s="108" t="n">
+        <v>2</v>
+      </c>
+      <c r="G63" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" s="109" t="n">
+        <v>0</v>
+      </c>
       <c r="J63" s="109" t="n"/>
-      <c r="K63" s="110" t="inlineStr">
-        <is>
-          <t>decupaj colt dreapta. Cote in sensul acelor de ceasornic, de la coltul din stanga spate: 564:682:382:282(cant 1):182(cant 1):400:</t>
-        </is>
-      </c>
+      <c r="K63" s="110" t="inlineStr"/>
       <c r="W63" s="49">
         <f>A63*B63*C63/1000000</f>
         <v/>
@@ -7023,29 +7023,33 @@
         </is>
       </c>
       <c r="B64" s="108" t="n">
-        <v>564</v>
+        <v>744</v>
       </c>
       <c r="C64" s="108" t="n">
-        <v>682</v>
+        <v>250</v>
       </c>
       <c r="D64" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E64" s="108" t="inlineStr">
         <is>
-          <t>S3.pol</t>
-        </is>
-      </c>
-      <c r="F64" s="108" t="inlineStr"/>
-      <c r="G64" s="108" t="inlineStr"/>
-      <c r="H64" s="108" t="inlineStr"/>
-      <c r="I64" s="109" t="inlineStr"/>
+          <t>S3.colt1</t>
+        </is>
+      </c>
+      <c r="F64" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" s="109" t="n">
+        <v>0</v>
+      </c>
       <c r="J64" s="109" t="n"/>
-      <c r="K64" s="110" t="inlineStr">
-        <is>
-          <t>decupaj colt dreapta. Cote in sensul acelor de ceasornic, de la coltul din stanga spate: 564:682:362:302(cant 1):202(cant 1):380:</t>
-        </is>
-      </c>
+      <c r="K64" s="110" t="inlineStr"/>
       <c r="W64" s="49">
         <f>A64*B64*C64/1000000</f>
         <v/>
@@ -7122,23 +7126,29 @@
         </is>
       </c>
       <c r="B65" s="108" t="n">
+        <v>600</v>
+      </c>
+      <c r="C65" s="108" t="n">
         <v>500</v>
-      </c>
-      <c r="C65" s="108" t="n">
-        <v>682</v>
       </c>
       <c r="D65" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E65" s="108" t="inlineStr">
         <is>
-          <t>S3.spate</t>
-        </is>
-      </c>
-      <c r="F65" s="108" t="inlineStr"/>
+          <t>C3.jos</t>
+        </is>
+      </c>
+      <c r="F65" s="108" t="n">
+        <v>1</v>
+      </c>
       <c r="G65" s="108" t="inlineStr"/>
-      <c r="H65" s="108" t="inlineStr"/>
-      <c r="I65" s="109" t="inlineStr"/>
+      <c r="H65" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" s="109" t="n">
+        <v>1</v>
+      </c>
       <c r="J65" s="109" t="n"/>
       <c r="K65" s="110" t="inlineStr"/>
       <c r="W65" s="49">
@@ -7217,29 +7227,25 @@
         </is>
       </c>
       <c r="B66" s="108" t="n">
+        <v>724</v>
+      </c>
+      <c r="C66" s="108" t="n">
         <v>500</v>
-      </c>
-      <c r="C66" s="108" t="n">
-        <v>400</v>
       </c>
       <c r="D66" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E66" s="108" t="inlineStr">
         <is>
-          <t>S3.lat1</t>
+          <t>C3.lat</t>
         </is>
       </c>
       <c r="F66" s="108" t="n">
         <v>1</v>
       </c>
       <c r="G66" s="108" t="inlineStr"/>
-      <c r="H66" s="108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" s="109" t="n">
-        <v>1</v>
-      </c>
+      <c r="H66" s="108" t="inlineStr"/>
+      <c r="I66" s="109" t="inlineStr"/>
       <c r="J66" s="109" t="n"/>
       <c r="K66" s="110" t="inlineStr"/>
       <c r="W66" s="49">
@@ -7318,29 +7324,25 @@
         </is>
       </c>
       <c r="B67" s="108" t="n">
+        <v>724</v>
+      </c>
+      <c r="C67" s="108" t="n">
         <v>500</v>
-      </c>
-      <c r="C67" s="108" t="n">
-        <v>400</v>
       </c>
       <c r="D67" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E67" s="108" t="inlineStr">
         <is>
-          <t>S3.lat2</t>
+          <t>C3.lat</t>
         </is>
       </c>
       <c r="F67" s="108" t="n">
         <v>1</v>
       </c>
       <c r="G67" s="108" t="inlineStr"/>
-      <c r="H67" s="108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" s="109" t="n">
-        <v>1</v>
-      </c>
+      <c r="H67" s="108" t="inlineStr"/>
+      <c r="I67" s="109" t="inlineStr"/>
       <c r="J67" s="109" t="n"/>
       <c r="K67" s="110" t="inlineStr"/>
       <c r="W67" s="49">
@@ -7419,29 +7421,27 @@
         </is>
       </c>
       <c r="B68" s="108" t="n">
-        <v>500</v>
+        <v>564</v>
       </c>
       <c r="C68" s="108" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="D68" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E68" s="108" t="inlineStr">
         <is>
-          <t>S4.lat1</t>
+          <t>C3.leg1</t>
         </is>
       </c>
       <c r="F68" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="G68" s="108" t="inlineStr"/>
-      <c r="H68" s="108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" s="109" t="n">
-        <v>1</v>
-      </c>
+      <c r="G68" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" s="108" t="inlineStr"/>
+      <c r="I68" s="109" t="inlineStr"/>
       <c r="J68" s="109" t="n"/>
       <c r="K68" s="110" t="inlineStr"/>
       <c r="W68" s="49">
@@ -7520,23 +7520,25 @@
         </is>
       </c>
       <c r="B69" s="108" t="n">
-        <v>176</v>
+        <v>564</v>
       </c>
       <c r="C69" s="108" t="n">
-        <v>399</v>
+        <v>100</v>
       </c>
       <c r="D69" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E69" s="108" t="inlineStr">
         <is>
-          <t>S4.jos</t>
+          <t>C3.leg2</t>
         </is>
       </c>
       <c r="F69" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="G69" s="108" t="inlineStr"/>
+      <c r="G69" s="108" t="n">
+        <v>1</v>
+      </c>
       <c r="H69" s="108" t="inlineStr"/>
       <c r="I69" s="109" t="inlineStr"/>
       <c r="J69" s="109" t="n"/>
@@ -7617,17 +7619,17 @@
         </is>
       </c>
       <c r="B70" s="108" t="n">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="C70" s="108" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="D70" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E70" s="108" t="inlineStr">
         <is>
-          <t>S4.lat2</t>
+          <t>C3.ser.left</t>
         </is>
       </c>
       <c r="F70" s="108" t="n">
@@ -7718,17 +7720,17 @@
         </is>
       </c>
       <c r="B71" s="108" t="n">
-        <v>176</v>
+        <v>502</v>
       </c>
       <c r="C71" s="108" t="n">
-        <v>399</v>
+        <v>100</v>
       </c>
       <c r="D71" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E71" s="108" t="inlineStr">
         <is>
-          <t>S4.sus</t>
+          <t>C3.ser.front</t>
         </is>
       </c>
       <c r="F71" s="108" t="n">
@@ -7815,29 +7817,25 @@
         </is>
       </c>
       <c r="B72" s="108" t="n">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="C72" s="108" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="D72" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E72" s="108" t="inlineStr">
         <is>
-          <t>S5.lat1</t>
+          <t>C3.ser.back</t>
         </is>
       </c>
       <c r="F72" s="108" t="n">
         <v>1</v>
       </c>
       <c r="G72" s="108" t="inlineStr"/>
-      <c r="H72" s="108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" s="109" t="n">
-        <v>1</v>
-      </c>
+      <c r="H72" s="108" t="inlineStr"/>
+      <c r="I72" s="109" t="inlineStr"/>
       <c r="J72" s="109" t="n"/>
       <c r="K72" s="110" t="inlineStr"/>
       <c r="W72" s="49">
@@ -7916,25 +7914,29 @@
         </is>
       </c>
       <c r="B73" s="108" t="n">
-        <v>564</v>
+        <v>487</v>
       </c>
       <c r="C73" s="108" t="n">
-        <v>399</v>
+        <v>100</v>
       </c>
       <c r="D73" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E73" s="108" t="inlineStr">
         <is>
-          <t>S5.jos</t>
+          <t>C3.ser.right</t>
         </is>
       </c>
       <c r="F73" s="108" t="n">
         <v>1</v>
       </c>
       <c r="G73" s="108" t="inlineStr"/>
-      <c r="H73" s="108" t="inlineStr"/>
-      <c r="I73" s="109" t="inlineStr"/>
+      <c r="H73" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I73" s="109" t="n">
+        <v>1</v>
+      </c>
       <c r="J73" s="109" t="n"/>
       <c r="K73" s="110" t="inlineStr"/>
       <c r="W73" s="49">
@@ -8013,29 +8015,23 @@
         </is>
       </c>
       <c r="B74" s="108" t="n">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="C74" s="108" t="n">
-        <v>400</v>
+        <v>451</v>
       </c>
       <c r="D74" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E74" s="108" t="inlineStr">
         <is>
-          <t>S5.lat2</t>
-        </is>
-      </c>
-      <c r="F74" s="108" t="n">
-        <v>1</v>
-      </c>
+          <t>C3.ser.f</t>
+        </is>
+      </c>
+      <c r="F74" s="108" t="inlineStr"/>
       <c r="G74" s="108" t="inlineStr"/>
-      <c r="H74" s="108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" s="109" t="n">
-        <v>1</v>
-      </c>
+      <c r="H74" s="108" t="inlineStr"/>
+      <c r="I74" s="109" t="inlineStr"/>
       <c r="J74" s="109" t="n"/>
       <c r="K74" s="110" t="inlineStr"/>
       <c r="W74" s="49">
@@ -8117,14 +8113,14 @@
         <v>564</v>
       </c>
       <c r="C75" s="108" t="n">
-        <v>399</v>
+        <v>500</v>
       </c>
       <c r="D75" s="108" t="n">
         <v>0</v>
       </c>
       <c r="E75" s="108" t="inlineStr">
         <is>
-          <t>S5.sus</t>
+          <t>C3.sep.h</t>
         </is>
       </c>
       <c r="F75" s="108" t="n">
@@ -8205,17 +8201,37 @@
       </c>
     </row>
     <row r="76" ht="18.75" customHeight="1" s="50">
-      <c r="A76" s="108" t="n"/>
-      <c r="B76" s="108" t="n"/>
-      <c r="C76" s="108" t="n"/>
-      <c r="D76" s="108" t="n"/>
-      <c r="E76" s="108" t="n"/>
-      <c r="F76" s="108" t="n"/>
-      <c r="G76" s="108" t="n"/>
-      <c r="H76" s="108" t="n"/>
-      <c r="I76" s="109" t="n"/>
+      <c r="A76" s="108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B76" s="108" t="n">
+        <v>780</v>
+      </c>
+      <c r="C76" s="108" t="n">
+        <v>400</v>
+      </c>
+      <c r="D76" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" s="108" t="inlineStr">
+        <is>
+          <t>S4.lat1</t>
+        </is>
+      </c>
+      <c r="F76" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" s="108" t="inlineStr"/>
+      <c r="H76" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" s="109" t="n">
+        <v>1</v>
+      </c>
       <c r="J76" s="109" t="n"/>
-      <c r="K76" s="110" t="n"/>
+      <c r="K76" s="110" t="inlineStr"/>
       <c r="W76" s="49">
         <f>A76*B76*C76/1000000</f>
         <v/>
@@ -8286,17 +8302,33 @@
       </c>
     </row>
     <row r="77" ht="18.75" customHeight="1" s="50">
-      <c r="A77" s="108" t="n"/>
-      <c r="B77" s="108" t="n"/>
-      <c r="C77" s="108" t="n"/>
-      <c r="D77" s="108" t="n"/>
-      <c r="E77" s="108" t="n"/>
-      <c r="F77" s="108" t="n"/>
-      <c r="G77" s="108" t="n"/>
-      <c r="H77" s="108" t="n"/>
-      <c r="I77" s="109" t="n"/>
+      <c r="A77" s="108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B77" s="108" t="n">
+        <v>176</v>
+      </c>
+      <c r="C77" s="108" t="n">
+        <v>399</v>
+      </c>
+      <c r="D77" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" s="108" t="inlineStr">
+        <is>
+          <t>S4.jos</t>
+        </is>
+      </c>
+      <c r="F77" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" s="108" t="inlineStr"/>
+      <c r="H77" s="108" t="inlineStr"/>
+      <c r="I77" s="109" t="inlineStr"/>
       <c r="J77" s="109" t="n"/>
-      <c r="K77" s="110" t="n"/>
+      <c r="K77" s="110" t="inlineStr"/>
       <c r="W77" s="49">
         <f>A77*B77*C77/1000000</f>
         <v/>
@@ -8367,17 +8399,37 @@
       </c>
     </row>
     <row r="78" ht="18.75" customHeight="1" s="50">
-      <c r="A78" s="108" t="n"/>
-      <c r="B78" s="108" t="n"/>
-      <c r="C78" s="108" t="n"/>
-      <c r="D78" s="108" t="n"/>
-      <c r="E78" s="108" t="n"/>
-      <c r="F78" s="108" t="n"/>
-      <c r="G78" s="108" t="n"/>
-      <c r="H78" s="108" t="n"/>
-      <c r="I78" s="109" t="n"/>
+      <c r="A78" s="108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B78" s="108" t="n">
+        <v>780</v>
+      </c>
+      <c r="C78" s="108" t="n">
+        <v>400</v>
+      </c>
+      <c r="D78" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" s="108" t="inlineStr">
+        <is>
+          <t>S4.lat2</t>
+        </is>
+      </c>
+      <c r="F78" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" s="108" t="inlineStr"/>
+      <c r="H78" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I78" s="109" t="n">
+        <v>1</v>
+      </c>
       <c r="J78" s="109" t="n"/>
-      <c r="K78" s="110" t="n"/>
+      <c r="K78" s="110" t="inlineStr"/>
       <c r="W78" s="49">
         <f>A78*B78*C78/1000000</f>
         <v/>
@@ -8448,17 +8500,33 @@
       </c>
     </row>
     <row r="79" ht="18.75" customHeight="1" s="50">
-      <c r="A79" s="108" t="n"/>
-      <c r="B79" s="108" t="n"/>
-      <c r="C79" s="108" t="n"/>
-      <c r="D79" s="108" t="n"/>
-      <c r="E79" s="108" t="n"/>
-      <c r="F79" s="108" t="n"/>
-      <c r="G79" s="108" t="n"/>
-      <c r="H79" s="108" t="n"/>
-      <c r="I79" s="109" t="n"/>
+      <c r="A79" s="108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B79" s="108" t="n">
+        <v>176</v>
+      </c>
+      <c r="C79" s="108" t="n">
+        <v>399</v>
+      </c>
+      <c r="D79" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" s="108" t="inlineStr">
+        <is>
+          <t>S4.sus</t>
+        </is>
+      </c>
+      <c r="F79" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" s="108" t="inlineStr"/>
+      <c r="H79" s="108" t="inlineStr"/>
+      <c r="I79" s="109" t="inlineStr"/>
       <c r="J79" s="109" t="n"/>
-      <c r="K79" s="110" t="n"/>
+      <c r="K79" s="110" t="inlineStr"/>
       <c r="W79" s="49">
         <f>A79*B79*C79/1000000</f>
         <v/>
@@ -8529,17 +8597,33 @@
       </c>
     </row>
     <row r="80" ht="18.75" customHeight="1" s="50">
-      <c r="A80" s="108" t="n"/>
-      <c r="B80" s="108" t="n"/>
-      <c r="C80" s="108" t="n"/>
-      <c r="D80" s="108" t="n"/>
-      <c r="E80" s="108" t="n"/>
-      <c r="F80" s="108" t="n"/>
-      <c r="G80" s="108" t="n"/>
-      <c r="H80" s="108" t="n"/>
-      <c r="I80" s="109" t="n"/>
+      <c r="A80" s="108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B80" s="108" t="n">
+        <v>176</v>
+      </c>
+      <c r="C80" s="108" t="n">
+        <v>380</v>
+      </c>
+      <c r="D80" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" s="108" t="inlineStr">
+        <is>
+          <t>S4.pol</t>
+        </is>
+      </c>
+      <c r="F80" s="108" t="n">
+        <v>2</v>
+      </c>
+      <c r="G80" s="108" t="inlineStr"/>
+      <c r="H80" s="108" t="inlineStr"/>
+      <c r="I80" s="109" t="inlineStr"/>
       <c r="J80" s="109" t="n"/>
-      <c r="K80" s="110" t="n"/>
+      <c r="K80" s="110" t="inlineStr"/>
       <c r="W80" s="49">
         <f>A80*B80*C80/1000000</f>
         <v/>
@@ -8610,17 +8694,33 @@
       </c>
     </row>
     <row r="81" ht="18.75" customHeight="1" s="50">
-      <c r="A81" s="108" t="n"/>
-      <c r="B81" s="108" t="n"/>
-      <c r="C81" s="108" t="n"/>
-      <c r="D81" s="108" t="n"/>
-      <c r="E81" s="108" t="n"/>
-      <c r="F81" s="108" t="n"/>
-      <c r="G81" s="108" t="n"/>
-      <c r="H81" s="108" t="n"/>
-      <c r="I81" s="109" t="n"/>
+      <c r="A81" s="108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B81" s="108" t="n">
+        <v>176</v>
+      </c>
+      <c r="C81" s="108" t="n">
+        <v>380</v>
+      </c>
+      <c r="D81" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" s="108" t="inlineStr">
+        <is>
+          <t>S4.pol</t>
+        </is>
+      </c>
+      <c r="F81" s="108" t="n">
+        <v>2</v>
+      </c>
+      <c r="G81" s="108" t="inlineStr"/>
+      <c r="H81" s="108" t="inlineStr"/>
+      <c r="I81" s="109" t="inlineStr"/>
       <c r="J81" s="109" t="n"/>
-      <c r="K81" s="110" t="n"/>
+      <c r="K81" s="110" t="inlineStr"/>
       <c r="W81" s="49">
         <f>A81*B81*C81/1000000</f>
         <v/>
@@ -8691,17 +8791,33 @@
       </c>
     </row>
     <row r="82" ht="18.75" customHeight="1" s="50">
-      <c r="A82" s="108" t="n"/>
-      <c r="B82" s="108" t="n"/>
-      <c r="C82" s="108" t="n"/>
-      <c r="D82" s="108" t="n"/>
-      <c r="E82" s="108" t="n"/>
-      <c r="F82" s="108" t="n"/>
-      <c r="G82" s="108" t="n"/>
-      <c r="H82" s="108" t="n"/>
-      <c r="I82" s="109" t="n"/>
+      <c r="A82" s="108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B82" s="108" t="n">
+        <v>176</v>
+      </c>
+      <c r="C82" s="108" t="n">
+        <v>380</v>
+      </c>
+      <c r="D82" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" s="108" t="inlineStr">
+        <is>
+          <t>S4.pol</t>
+        </is>
+      </c>
+      <c r="F82" s="108" t="n">
+        <v>2</v>
+      </c>
+      <c r="G82" s="108" t="inlineStr"/>
+      <c r="H82" s="108" t="inlineStr"/>
+      <c r="I82" s="109" t="inlineStr"/>
       <c r="J82" s="109" t="n"/>
-      <c r="K82" s="110" t="n"/>
+      <c r="K82" s="110" t="inlineStr"/>
       <c r="W82" s="49">
         <f>A82*B82*C82/1000000</f>
         <v/>
@@ -8772,17 +8888,37 @@
       </c>
     </row>
     <row r="83" ht="18.75" customHeight="1" s="50">
-      <c r="A83" s="108" t="n"/>
-      <c r="B83" s="108" t="n"/>
-      <c r="C83" s="108" t="n"/>
-      <c r="D83" s="108" t="n"/>
-      <c r="E83" s="108" t="n"/>
-      <c r="F83" s="108" t="n"/>
-      <c r="G83" s="108" t="n"/>
-      <c r="H83" s="108" t="n"/>
-      <c r="I83" s="109" t="n"/>
+      <c r="A83" s="108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B83" s="108" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C83" s="108" t="n">
+        <v>500</v>
+      </c>
+      <c r="D83" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" s="108" t="inlineStr">
+        <is>
+          <t>C5.jos</t>
+        </is>
+      </c>
+      <c r="F83" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" s="108" t="inlineStr"/>
+      <c r="H83" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I83" s="109" t="n">
+        <v>1</v>
+      </c>
       <c r="J83" s="109" t="n"/>
-      <c r="K83" s="110" t="n"/>
+      <c r="K83" s="110" t="inlineStr"/>
       <c r="W83" s="49">
         <f>A83*B83*C83/1000000</f>
         <v/>
@@ -8853,17 +8989,33 @@
       </c>
     </row>
     <row r="84" ht="18.75" customHeight="1" s="50">
-      <c r="A84" s="108" t="n"/>
-      <c r="B84" s="108" t="n"/>
-      <c r="C84" s="108" t="n"/>
-      <c r="D84" s="108" t="n"/>
-      <c r="E84" s="108" t="n"/>
-      <c r="F84" s="108" t="n"/>
-      <c r="G84" s="108" t="n"/>
-      <c r="H84" s="108" t="n"/>
-      <c r="I84" s="109" t="n"/>
+      <c r="A84" s="108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B84" s="108" t="n">
+        <v>724</v>
+      </c>
+      <c r="C84" s="108" t="n">
+        <v>500</v>
+      </c>
+      <c r="D84" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" s="108" t="inlineStr">
+        <is>
+          <t>C5.lat</t>
+        </is>
+      </c>
+      <c r="F84" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" s="108" t="inlineStr"/>
+      <c r="H84" s="108" t="inlineStr"/>
+      <c r="I84" s="109" t="inlineStr"/>
       <c r="J84" s="109" t="n"/>
-      <c r="K84" s="110" t="n"/>
+      <c r="K84" s="110" t="inlineStr"/>
       <c r="W84" s="49">
         <f>A84*B84*C84/1000000</f>
         <v/>
@@ -8934,17 +9086,33 @@
       </c>
     </row>
     <row r="85" ht="18.75" customHeight="1" s="50">
-      <c r="A85" s="108" t="n"/>
-      <c r="B85" s="108" t="n"/>
-      <c r="C85" s="108" t="n"/>
-      <c r="D85" s="108" t="n"/>
-      <c r="E85" s="108" t="n"/>
-      <c r="F85" s="108" t="n"/>
-      <c r="G85" s="108" t="n"/>
-      <c r="H85" s="108" t="n"/>
-      <c r="I85" s="109" t="n"/>
+      <c r="A85" s="108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B85" s="108" t="n">
+        <v>724</v>
+      </c>
+      <c r="C85" s="108" t="n">
+        <v>500</v>
+      </c>
+      <c r="D85" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" s="108" t="inlineStr">
+        <is>
+          <t>C5.lat</t>
+        </is>
+      </c>
+      <c r="F85" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" s="108" t="inlineStr"/>
+      <c r="H85" s="108" t="inlineStr"/>
+      <c r="I85" s="109" t="inlineStr"/>
       <c r="J85" s="109" t="n"/>
-      <c r="K85" s="110" t="n"/>
+      <c r="K85" s="110" t="inlineStr"/>
       <c r="W85" s="49">
         <f>A85*B85*C85/1000000</f>
         <v/>
@@ -9015,17 +9183,35 @@
       </c>
     </row>
     <row r="86" ht="18.75" customHeight="1" s="50">
-      <c r="A86" s="108" t="n"/>
-      <c r="B86" s="108" t="n"/>
-      <c r="C86" s="108" t="n"/>
-      <c r="D86" s="108" t="n"/>
-      <c r="E86" s="108" t="n"/>
-      <c r="F86" s="108" t="n"/>
-      <c r="G86" s="108" t="n"/>
-      <c r="H86" s="108" t="n"/>
-      <c r="I86" s="109" t="n"/>
+      <c r="A86" s="108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B86" s="108" t="n">
+        <v>964</v>
+      </c>
+      <c r="C86" s="108" t="n">
+        <v>100</v>
+      </c>
+      <c r="D86" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" s="108" t="inlineStr">
+        <is>
+          <t>C5.leg1</t>
+        </is>
+      </c>
+      <c r="F86" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" s="108" t="inlineStr"/>
+      <c r="I86" s="109" t="inlineStr"/>
       <c r="J86" s="109" t="n"/>
-      <c r="K86" s="110" t="n"/>
+      <c r="K86" s="110" t="inlineStr"/>
       <c r="W86" s="49">
         <f>A86*B86*C86/1000000</f>
         <v/>
@@ -9096,17 +9282,35 @@
       </c>
     </row>
     <row r="87" ht="18.75" customHeight="1" s="50">
-      <c r="A87" s="108" t="n"/>
-      <c r="B87" s="108" t="n"/>
-      <c r="C87" s="108" t="n"/>
-      <c r="D87" s="108" t="n"/>
-      <c r="E87" s="108" t="n"/>
-      <c r="F87" s="108" t="n"/>
-      <c r="G87" s="108" t="n"/>
-      <c r="H87" s="108" t="n"/>
-      <c r="I87" s="109" t="n"/>
+      <c r="A87" s="108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B87" s="108" t="n">
+        <v>964</v>
+      </c>
+      <c r="C87" s="108" t="n">
+        <v>100</v>
+      </c>
+      <c r="D87" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" s="108" t="inlineStr">
+        <is>
+          <t>C5.leg2</t>
+        </is>
+      </c>
+      <c r="F87" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" s="108" t="inlineStr"/>
+      <c r="I87" s="109" t="inlineStr"/>
       <c r="J87" s="109" t="n"/>
-      <c r="K87" s="110" t="n"/>
+      <c r="K87" s="110" t="inlineStr"/>
       <c r="W87" s="49">
         <f>A87*B87*C87/1000000</f>
         <v/>
@@ -9177,17 +9381,33 @@
       </c>
     </row>
     <row r="88" ht="18.75" customHeight="1" s="50">
-      <c r="A88" s="108" t="n"/>
-      <c r="B88" s="108" t="n"/>
-      <c r="C88" s="108" t="n"/>
-      <c r="D88" s="108" t="n"/>
-      <c r="E88" s="108" t="n"/>
-      <c r="F88" s="108" t="n"/>
-      <c r="G88" s="108" t="n"/>
-      <c r="H88" s="108" t="n"/>
-      <c r="I88" s="109" t="n"/>
+      <c r="A88" s="108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B88" s="108" t="n">
+        <v>964</v>
+      </c>
+      <c r="C88" s="108" t="n">
+        <v>100</v>
+      </c>
+      <c r="D88" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" s="108" t="inlineStr">
+        <is>
+          <t>C5.leg</t>
+        </is>
+      </c>
+      <c r="F88" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" s="108" t="inlineStr"/>
+      <c r="H88" s="108" t="inlineStr"/>
+      <c r="I88" s="109" t="inlineStr"/>
       <c r="J88" s="109" t="n"/>
-      <c r="K88" s="110" t="n"/>
+      <c r="K88" s="110" t="inlineStr"/>
       <c r="W88" s="49">
         <f>A88*B88*C88/1000000</f>
         <v/>
@@ -9258,17 +9478,37 @@
       </c>
     </row>
     <row r="89" ht="18.75" customHeight="1" s="50">
-      <c r="A89" s="108" t="n"/>
-      <c r="B89" s="108" t="n"/>
-      <c r="C89" s="108" t="n"/>
-      <c r="D89" s="108" t="n"/>
-      <c r="E89" s="108" t="n"/>
-      <c r="F89" s="108" t="n"/>
-      <c r="G89" s="108" t="n"/>
-      <c r="H89" s="108" t="n"/>
-      <c r="I89" s="109" t="n"/>
+      <c r="A89" s="108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B89" s="108" t="n">
+        <v>200</v>
+      </c>
+      <c r="C89" s="108" t="n">
+        <v>500</v>
+      </c>
+      <c r="D89" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" s="108" t="inlineStr">
+        <is>
+          <t>C6.jos</t>
+        </is>
+      </c>
+      <c r="F89" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" s="108" t="inlineStr"/>
+      <c r="H89" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" s="109" t="n">
+        <v>1</v>
+      </c>
       <c r="J89" s="109" t="n"/>
-      <c r="K89" s="110" t="n"/>
+      <c r="K89" s="110" t="inlineStr"/>
       <c r="W89" s="49">
         <f>A89*B89*C89/1000000</f>
         <v/>
@@ -9339,17 +9579,33 @@
       </c>
     </row>
     <row r="90" ht="18.75" customHeight="1" s="50">
-      <c r="A90" s="108" t="n"/>
-      <c r="B90" s="108" t="n"/>
-      <c r="C90" s="108" t="n"/>
-      <c r="D90" s="108" t="n"/>
-      <c r="E90" s="108" t="n"/>
-      <c r="F90" s="108" t="n"/>
-      <c r="G90" s="108" t="n"/>
-      <c r="H90" s="108" t="n"/>
-      <c r="I90" s="109" t="n"/>
+      <c r="A90" s="108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B90" s="108" t="n">
+        <v>724</v>
+      </c>
+      <c r="C90" s="108" t="n">
+        <v>500</v>
+      </c>
+      <c r="D90" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" s="108" t="inlineStr">
+        <is>
+          <t>C6.lat</t>
+        </is>
+      </c>
+      <c r="F90" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" s="108" t="inlineStr"/>
+      <c r="H90" s="108" t="inlineStr"/>
+      <c r="I90" s="109" t="inlineStr"/>
       <c r="J90" s="109" t="n"/>
-      <c r="K90" s="110" t="n"/>
+      <c r="K90" s="110" t="inlineStr"/>
       <c r="W90" s="49">
         <f>A90*B90*C90/1000000</f>
         <v/>
@@ -9420,17 +9676,33 @@
       </c>
     </row>
     <row r="91" ht="18.75" customHeight="1" s="50">
-      <c r="A91" s="108" t="n"/>
-      <c r="B91" s="108" t="n"/>
-      <c r="C91" s="108" t="n"/>
-      <c r="D91" s="108" t="n"/>
-      <c r="E91" s="108" t="n"/>
-      <c r="F91" s="108" t="n"/>
-      <c r="G91" s="108" t="n"/>
-      <c r="H91" s="108" t="n"/>
-      <c r="I91" s="109" t="n"/>
+      <c r="A91" s="108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B91" s="108" t="n">
+        <v>724</v>
+      </c>
+      <c r="C91" s="108" t="n">
+        <v>500</v>
+      </c>
+      <c r="D91" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" s="108" t="inlineStr">
+        <is>
+          <t>C6.lat</t>
+        </is>
+      </c>
+      <c r="F91" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" s="108" t="inlineStr"/>
+      <c r="H91" s="108" t="inlineStr"/>
+      <c r="I91" s="109" t="inlineStr"/>
       <c r="J91" s="109" t="n"/>
-      <c r="K91" s="110" t="n"/>
+      <c r="K91" s="110" t="inlineStr"/>
       <c r="W91" s="49">
         <f>A91*B91*C91/1000000</f>
         <v/>
@@ -9501,17 +9773,35 @@
       </c>
     </row>
     <row r="92" ht="18.75" customHeight="1" s="50">
-      <c r="A92" s="108" t="n"/>
-      <c r="B92" s="108" t="n"/>
-      <c r="C92" s="108" t="n"/>
-      <c r="D92" s="108" t="n"/>
-      <c r="E92" s="108" t="n"/>
-      <c r="F92" s="108" t="n"/>
-      <c r="G92" s="108" t="n"/>
-      <c r="H92" s="108" t="n"/>
-      <c r="I92" s="109" t="n"/>
+      <c r="A92" s="108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B92" s="108" t="n">
+        <v>164</v>
+      </c>
+      <c r="C92" s="108" t="n">
+        <v>100</v>
+      </c>
+      <c r="D92" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" s="108" t="inlineStr">
+        <is>
+          <t>C6.leg1</t>
+        </is>
+      </c>
+      <c r="F92" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" s="108" t="inlineStr"/>
+      <c r="I92" s="109" t="inlineStr"/>
       <c r="J92" s="109" t="n"/>
-      <c r="K92" s="110" t="n"/>
+      <c r="K92" s="110" t="inlineStr"/>
       <c r="W92" s="49">
         <f>A92*B92*C92/1000000</f>
         <v/>
@@ -9582,17 +9872,35 @@
       </c>
     </row>
     <row r="93" ht="18.75" customHeight="1" s="50">
-      <c r="A93" s="108" t="n"/>
-      <c r="B93" s="108" t="n"/>
-      <c r="C93" s="108" t="n"/>
-      <c r="D93" s="108" t="n"/>
-      <c r="E93" s="108" t="n"/>
-      <c r="F93" s="108" t="n"/>
-      <c r="G93" s="108" t="n"/>
-      <c r="H93" s="108" t="n"/>
-      <c r="I93" s="109" t="n"/>
+      <c r="A93" s="108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B93" s="108" t="n">
+        <v>164</v>
+      </c>
+      <c r="C93" s="108" t="n">
+        <v>100</v>
+      </c>
+      <c r="D93" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" s="108" t="inlineStr">
+        <is>
+          <t>C6.leg2</t>
+        </is>
+      </c>
+      <c r="F93" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" s="108" t="inlineStr"/>
+      <c r="I93" s="109" t="inlineStr"/>
       <c r="J93" s="109" t="n"/>
-      <c r="K93" s="110" t="n"/>
+      <c r="K93" s="110" t="inlineStr"/>
       <c r="W93" s="49">
         <f>A93*B93*C93/1000000</f>
         <v/>
@@ -9663,17 +9971,37 @@
       </c>
     </row>
     <row r="94" ht="18.75" customHeight="1" s="50">
-      <c r="A94" s="108" t="n"/>
-      <c r="B94" s="108" t="n"/>
-      <c r="C94" s="108" t="n"/>
-      <c r="D94" s="108" t="n"/>
-      <c r="E94" s="108" t="n"/>
-      <c r="F94" s="108" t="n"/>
-      <c r="G94" s="108" t="n"/>
-      <c r="H94" s="108" t="n"/>
-      <c r="I94" s="109" t="n"/>
+      <c r="A94" s="108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B94" s="108" t="n">
+        <v>780</v>
+      </c>
+      <c r="C94" s="108" t="n">
+        <v>400</v>
+      </c>
+      <c r="D94" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" s="108" t="inlineStr">
+        <is>
+          <t>S5.lat1</t>
+        </is>
+      </c>
+      <c r="F94" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" s="108" t="inlineStr"/>
+      <c r="H94" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" s="109" t="n">
+        <v>1</v>
+      </c>
       <c r="J94" s="109" t="n"/>
-      <c r="K94" s="110" t="n"/>
+      <c r="K94" s="110" t="inlineStr"/>
       <c r="W94" s="49">
         <f>A94*B94*C94/1000000</f>
         <v/>
@@ -9744,17 +10072,33 @@
       </c>
     </row>
     <row r="95" ht="18.75" customHeight="1" s="50">
-      <c r="A95" s="108" t="n"/>
-      <c r="B95" s="108" t="n"/>
-      <c r="C95" s="108" t="n"/>
-      <c r="D95" s="108" t="n"/>
-      <c r="E95" s="108" t="n"/>
-      <c r="F95" s="108" t="n"/>
-      <c r="G95" s="108" t="n"/>
-      <c r="H95" s="108" t="n"/>
-      <c r="I95" s="109" t="n"/>
+      <c r="A95" s="108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B95" s="108" t="n">
+        <v>564</v>
+      </c>
+      <c r="C95" s="108" t="n">
+        <v>399</v>
+      </c>
+      <c r="D95" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" s="108" t="inlineStr">
+        <is>
+          <t>S5.jos</t>
+        </is>
+      </c>
+      <c r="F95" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G95" s="108" t="inlineStr"/>
+      <c r="H95" s="108" t="inlineStr"/>
+      <c r="I95" s="109" t="inlineStr"/>
       <c r="J95" s="109" t="n"/>
-      <c r="K95" s="110" t="n"/>
+      <c r="K95" s="110" t="inlineStr"/>
       <c r="W95" s="49">
         <f>A95*B95*C95/1000000</f>
         <v/>
@@ -9825,17 +10169,37 @@
       </c>
     </row>
     <row r="96" ht="18.75" customHeight="1" s="50">
-      <c r="A96" s="108" t="n"/>
-      <c r="B96" s="108" t="n"/>
-      <c r="C96" s="108" t="n"/>
-      <c r="D96" s="108" t="n"/>
-      <c r="E96" s="108" t="n"/>
-      <c r="F96" s="108" t="n"/>
-      <c r="G96" s="108" t="n"/>
-      <c r="H96" s="108" t="n"/>
-      <c r="I96" s="109" t="n"/>
+      <c r="A96" s="108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B96" s="108" t="n">
+        <v>780</v>
+      </c>
+      <c r="C96" s="108" t="n">
+        <v>400</v>
+      </c>
+      <c r="D96" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" s="108" t="inlineStr">
+        <is>
+          <t>S5.lat2</t>
+        </is>
+      </c>
+      <c r="F96" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" s="108" t="inlineStr"/>
+      <c r="H96" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" s="109" t="n">
+        <v>1</v>
+      </c>
       <c r="J96" s="109" t="n"/>
-      <c r="K96" s="110" t="n"/>
+      <c r="K96" s="110" t="inlineStr"/>
       <c r="W96" s="49">
         <f>A96*B96*C96/1000000</f>
         <v/>
@@ -9906,17 +10270,33 @@
       </c>
     </row>
     <row r="97" ht="18.75" customHeight="1" s="50">
-      <c r="A97" s="108" t="n"/>
-      <c r="B97" s="108" t="n"/>
-      <c r="C97" s="108" t="n"/>
-      <c r="D97" s="108" t="n"/>
-      <c r="E97" s="108" t="n"/>
-      <c r="F97" s="108" t="n"/>
-      <c r="G97" s="108" t="n"/>
-      <c r="H97" s="108" t="n"/>
-      <c r="I97" s="109" t="n"/>
+      <c r="A97" s="108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B97" s="108" t="n">
+        <v>564</v>
+      </c>
+      <c r="C97" s="108" t="n">
+        <v>399</v>
+      </c>
+      <c r="D97" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" s="108" t="inlineStr">
+        <is>
+          <t>S5.sus</t>
+        </is>
+      </c>
+      <c r="F97" s="108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G97" s="108" t="inlineStr"/>
+      <c r="H97" s="108" t="inlineStr"/>
+      <c r="I97" s="109" t="inlineStr"/>
       <c r="J97" s="109" t="n"/>
-      <c r="K97" s="110" t="n"/>
+      <c r="K97" s="110" t="inlineStr"/>
       <c r="W97" s="49">
         <f>A97*B97*C97/1000000</f>
         <v/>
@@ -9987,17 +10367,33 @@
       </c>
     </row>
     <row r="98" ht="18.75" customHeight="1" s="50">
-      <c r="A98" s="108" t="n"/>
-      <c r="B98" s="108" t="n"/>
-      <c r="C98" s="108" t="n"/>
-      <c r="D98" s="108" t="n"/>
-      <c r="E98" s="108" t="n"/>
-      <c r="F98" s="108" t="n"/>
-      <c r="G98" s="108" t="n"/>
-      <c r="H98" s="108" t="n"/>
-      <c r="I98" s="109" t="n"/>
+      <c r="A98" s="108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B98" s="108" t="n">
+        <v>564</v>
+      </c>
+      <c r="C98" s="108" t="n">
+        <v>380</v>
+      </c>
+      <c r="D98" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" s="108" t="inlineStr">
+        <is>
+          <t>S5.pol</t>
+        </is>
+      </c>
+      <c r="F98" s="108" t="n">
+        <v>2</v>
+      </c>
+      <c r="G98" s="108" t="inlineStr"/>
+      <c r="H98" s="108" t="inlineStr"/>
+      <c r="I98" s="109" t="inlineStr"/>
       <c r="J98" s="109" t="n"/>
-      <c r="K98" s="110" t="n"/>
+      <c r="K98" s="110" t="inlineStr"/>
       <c r="W98" s="49">
         <f>A98*B98*C98/1000000</f>
         <v/>
@@ -10068,17 +10464,33 @@
       </c>
     </row>
     <row r="99" ht="18.75" customHeight="1" s="50">
-      <c r="A99" s="108" t="n"/>
-      <c r="B99" s="108" t="n"/>
-      <c r="C99" s="108" t="n"/>
-      <c r="D99" s="108" t="n"/>
-      <c r="E99" s="108" t="n"/>
-      <c r="F99" s="108" t="n"/>
-      <c r="G99" s="108" t="n"/>
-      <c r="H99" s="108" t="n"/>
-      <c r="I99" s="109" t="n"/>
+      <c r="A99" s="108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B99" s="108" t="n">
+        <v>564</v>
+      </c>
+      <c r="C99" s="108" t="n">
+        <v>380</v>
+      </c>
+      <c r="D99" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" s="108" t="inlineStr">
+        <is>
+          <t>S5.pol</t>
+        </is>
+      </c>
+      <c r="F99" s="108" t="n">
+        <v>2</v>
+      </c>
+      <c r="G99" s="108" t="inlineStr"/>
+      <c r="H99" s="108" t="inlineStr"/>
+      <c r="I99" s="109" t="inlineStr"/>
       <c r="J99" s="109" t="n"/>
-      <c r="K99" s="110" t="n"/>
+      <c r="K99" s="110" t="inlineStr"/>
       <c r="W99" s="49">
         <f>A99*B99*C99/1000000</f>
         <v/>
